--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Keycapture_Ruby.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Keycapture_Ruby.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -209,9 +209,6 @@
 {
 validate_keyCaptured=24
 };</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>wait(5);
@@ -306,7 +303,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -762,19 +758,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -830,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>19</v>
@@ -838,9 +834,7 @@
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="282" thickBot="1">
@@ -861,15 +855,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="225.75" thickBot="1">
@@ -890,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>21</v>
@@ -915,15 +907,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="180.75" thickBot="1">
@@ -944,15 +934,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="225.75" thickBot="1">
@@ -973,15 +961,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
   </sheetData>
@@ -1000,12 +986,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
